--- a/ESERCIZIO_M2-1-3_dati.xlsx
+++ b/ESERCIZIO_M2-1-3_dati.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,7 +17,23 @@
     <sheet name="Peso" sheetId="2" r:id="rId2"/>
     <sheet name="Snacks" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -106,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5551,14 +5567,14 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.3984375" customWidth="1"/>
-    <col min="3" max="3" width="20.1328125" customWidth="1"/>
-    <col min="4" max="4" width="22.73046875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5590,7 +5606,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="12.75">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5598,7 +5614,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="12.75">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -5606,7 +5622,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -5614,7 +5630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="12.75">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -5622,7 +5638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="12.75">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -5630,7 +5646,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="12.75">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -5638,7 +5654,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="12.75">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -5663,14 +5679,14 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.3984375" customWidth="1"/>
-    <col min="3" max="3" width="20.1328125" customWidth="1"/>
-    <col min="4" max="4" width="22.73046875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -5702,7 +5718,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="12.75">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5710,7 +5726,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="12.75">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5718,7 +5734,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -5726,7 +5742,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="12.75">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -5734,7 +5750,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="12.75">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -5742,7 +5758,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="12.75">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -5750,7 +5766,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="12.75">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -5758,7 +5774,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="12.75">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -5766,7 +5782,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="12.75">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -5774,7 +5790,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="12.75">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5782,7 +5798,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="12.75">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -5790,7 +5806,7 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="12.75">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -5798,7 +5814,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="12.75">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -5806,7 +5822,7 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="12.75">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -5814,7 +5830,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="12.75">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5822,7 +5838,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="12.75">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5830,7 +5846,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="12.75">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -5838,7 +5854,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="12.75">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -5846,7 +5862,7 @@
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="12.75">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -5854,7 +5870,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="12.75">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -5862,7 +5878,7 @@
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="12.75">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -5870,7 +5886,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="12.75">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -5878,7 +5894,7 @@
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="12.75">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -5886,7 +5902,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="12.75">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -5894,7 +5910,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="12.75">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -5902,7 +5918,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="12.75">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -5910,7 +5926,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="12.75">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -5918,7 +5934,7 @@
         <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="12.75">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -5926,7 +5942,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="12.75">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -5934,7 +5950,7 @@
         <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="12.75">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -5959,14 +5975,14 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.3984375" customWidth="1"/>
-    <col min="3" max="3" width="20.1328125" customWidth="1"/>
-    <col min="4" max="4" width="22.73046875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -6004,7 +6020,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="12.75">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -6021,7 +6037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="12.75">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -6038,7 +6054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -6055,7 +6071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="12.75">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -6072,7 +6088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="12.75">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -6089,7 +6105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="12.75">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -6106,7 +6122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="12.75">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -6123,7 +6139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="12.75">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -6140,7 +6156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="12.75">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -6157,7 +6173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="12.75">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
